--- a/autoast/Cariboo_replacement_6_jobs.xlsx
+++ b/autoast/Cariboo_replacement_6_jobs.xlsx
@@ -95,7 +95,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
@@ -125,6 +125,12 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -539,16 +545,16 @@
   <cols>
     <col width="23.57642857142857" bestFit="1" customWidth="1" style="5" min="1" max="1"/>
     <col width="138.8621428571429" bestFit="1" customWidth="1" style="6" min="2" max="2"/>
-    <col width="17.71928571428571" bestFit="1" customWidth="1" style="13" min="3" max="3"/>
-    <col width="16.86214285714286" bestFit="1" customWidth="1" style="13" min="4" max="4"/>
-    <col width="17.29071428571428" bestFit="1" customWidth="1" style="13" min="5" max="5"/>
+    <col width="17.71928571428571" bestFit="1" customWidth="1" style="15" min="3" max="3"/>
+    <col width="16.86214285714286" bestFit="1" customWidth="1" style="15" min="4" max="4"/>
+    <col width="17.29071428571428" bestFit="1" customWidth="1" style="15" min="5" max="5"/>
     <col width="110.4335714285714" bestFit="1" customWidth="1" style="5" min="6" max="6"/>
-    <col width="29.29071428571428" bestFit="1" customWidth="1" style="14" min="7" max="7"/>
-    <col width="20.57642857142857" bestFit="1" customWidth="1" style="14" min="8" max="8"/>
-    <col width="25.57642857142857" bestFit="1" customWidth="1" style="14" min="9" max="9"/>
-    <col width="21.005" bestFit="1" customWidth="1" style="14" min="10" max="10"/>
-    <col width="21.29071428571428" bestFit="1" customWidth="1" style="14" min="11" max="11"/>
-    <col width="13.71928571428571" bestFit="1" customWidth="1" style="14" min="12" max="12"/>
+    <col width="29.29071428571428" bestFit="1" customWidth="1" style="16" min="7" max="7"/>
+    <col width="20.57642857142857" bestFit="1" customWidth="1" style="16" min="8" max="8"/>
+    <col width="25.57642857142857" bestFit="1" customWidth="1" style="16" min="9" max="9"/>
+    <col width="21.005" bestFit="1" customWidth="1" style="16" min="10" max="10"/>
+    <col width="21.29071428571428" bestFit="1" customWidth="1" style="16" min="11" max="11"/>
+    <col width="13.71928571428571" bestFit="1" customWidth="1" style="16" min="12" max="12"/>
     <col width="14.71928571428571" bestFit="1" customWidth="1" style="6" min="13" max="13"/>
     <col width="11.57642857142857" bestFit="1" customWidth="1" style="6" min="14" max="14"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="6" min="15" max="15"/>
@@ -684,9 +690,9 @@
           <t>true</t>
         </is>
       </c>
-      <c r="M2" s="6" t="inlineStr">
-        <is>
-          <t>COMPLETE</t>
+      <c r="M2" s="11" t="inlineStr">
+        <is>
+          <t>Queued</t>
         </is>
       </c>
       <c r="N2" s="6" t="n"/>
@@ -749,12 +755,12 @@
           <t>true</t>
         </is>
       </c>
-      <c r="M3" s="3" t="inlineStr">
-        <is>
-          <t>COMPLETE</t>
-        </is>
-      </c>
-      <c r="N3" s="11" t="n"/>
+      <c r="M3" s="12" t="inlineStr">
+        <is>
+          <t>Queued</t>
+        </is>
+      </c>
+      <c r="N3" s="13" t="n"/>
       <c r="O3" s="9" t="n"/>
     </row>
     <row r="4" ht="19.5" customHeight="1">
@@ -814,12 +820,12 @@
           <t>true</t>
         </is>
       </c>
-      <c r="M4" s="3" t="inlineStr">
-        <is>
-          <t>COMPLETE</t>
-        </is>
-      </c>
-      <c r="N4" s="11" t="n"/>
+      <c r="M4" s="12" t="inlineStr">
+        <is>
+          <t>Queued</t>
+        </is>
+      </c>
+      <c r="N4" s="13" t="n"/>
       <c r="O4" s="9" t="n"/>
     </row>
     <row r="5" ht="19.5" customHeight="1">
@@ -828,7 +834,7 @@
           <t>Cariboo</t>
         </is>
       </c>
-      <c r="B5" s="11" t="n"/>
+      <c r="B5" s="13" t="n"/>
       <c r="C5" s="7" t="inlineStr">
         <is>
           <t>3401258</t>
@@ -879,12 +885,12 @@
           <t>true</t>
         </is>
       </c>
-      <c r="M5" s="3" t="inlineStr">
-        <is>
-          <t>COMPLETE</t>
-        </is>
-      </c>
-      <c r="N5" s="11" t="n"/>
+      <c r="M5" s="12" t="inlineStr">
+        <is>
+          <t>Queued</t>
+        </is>
+      </c>
+      <c r="N5" s="13" t="n"/>
       <c r="O5" s="3" t="n"/>
     </row>
     <row r="6" ht="19.5" customHeight="1">
@@ -944,12 +950,12 @@
           <t>true</t>
         </is>
       </c>
-      <c r="M6" s="3" t="inlineStr">
-        <is>
-          <t>COMPLETE</t>
-        </is>
-      </c>
-      <c r="N6" s="12" t="n"/>
+      <c r="M6" s="12" t="inlineStr">
+        <is>
+          <t>Queued</t>
+        </is>
+      </c>
+      <c r="N6" s="14" t="n"/>
       <c r="O6" s="9" t="n"/>
     </row>
     <row r="7" ht="19.5" customHeight="1">
@@ -1009,9 +1015,9 @@
           <t>true</t>
         </is>
       </c>
-      <c r="M7" s="6" t="inlineStr">
-        <is>
-          <t>COMPLETE</t>
+      <c r="M7" s="11" t="inlineStr">
+        <is>
+          <t>Queued</t>
         </is>
       </c>
       <c r="N7" s="6" t="n"/>
